--- a/results_of_test/test_1/result_bech.xlsx
+++ b/results_of_test/test_1/result_bech.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
   <si>
     <t>accuracy_0</t>
   </si>
@@ -461,7 +461,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC7"/>
+  <dimension ref="A1:AC11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1056,8 +1056,364 @@
       <c r="AB7">
         <v>1</v>
       </c>
-      <c r="AC7" t="b">
-        <v>0</v>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29">
+      <c r="A8">
+        <v>0.75</v>
+      </c>
+      <c r="B8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="C8">
+        <v>0.8947368421052632</v>
+      </c>
+      <c r="D8">
+        <v>0.7640449438202247</v>
+      </c>
+      <c r="E8">
+        <v>38</v>
+      </c>
+      <c r="F8">
+        <v>0.825</v>
+      </c>
+      <c r="G8">
+        <v>0.6875</v>
+      </c>
+      <c r="H8">
+        <v>0.75</v>
+      </c>
+      <c r="I8">
+        <v>48</v>
+      </c>
+      <c r="J8">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="K8">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="L8">
+        <v>0.6956521739130435</v>
+      </c>
+      <c r="M8">
+        <v>14</v>
+      </c>
+      <c r="N8">
+        <v>0.7935185185185185</v>
+      </c>
+      <c r="O8">
+        <v>0.717888471177945</v>
+      </c>
+      <c r="P8">
+        <v>0.7365657059110894</v>
+      </c>
+      <c r="Q8">
+        <v>100</v>
+      </c>
+      <c r="R8">
+        <v>0.7737777777777777</v>
+      </c>
+      <c r="S8">
+        <v>0.75</v>
+      </c>
+      <c r="T8">
+        <v>0.7477283829995115</v>
+      </c>
+      <c r="U8">
+        <v>100</v>
+      </c>
+      <c r="V8" t="s">
+        <v>29</v>
+      </c>
+      <c r="W8">
+        <v>5</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0.7811158798283262</v>
+      </c>
+      <c r="Z8">
+        <v>0.6250887492211549</v>
+      </c>
+      <c r="AA8">
+        <v>0.6758856971153119</v>
+      </c>
+      <c r="AB8">
+        <v>2</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29">
+      <c r="A9">
+        <v>0.91</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>0.868421052631579</v>
+      </c>
+      <c r="D9">
+        <v>0.9295774647887324</v>
+      </c>
+      <c r="E9">
+        <v>38</v>
+      </c>
+      <c r="F9">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>0.9142857142857143</v>
+      </c>
+      <c r="I9">
+        <v>48</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="L9">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="M9">
+        <v>14</v>
+      </c>
+      <c r="N9">
+        <v>0.9473684210526315</v>
+      </c>
+      <c r="O9">
+        <v>0.8609022556390977</v>
+      </c>
+      <c r="P9">
+        <v>0.8923988374692601</v>
+      </c>
+      <c r="Q9">
+        <v>100</v>
+      </c>
+      <c r="R9">
+        <v>0.9242105263157895</v>
+      </c>
+      <c r="S9">
+        <v>0.91</v>
+      </c>
+      <c r="T9">
+        <v>0.9087632461435278</v>
+      </c>
+      <c r="U9">
+        <v>100</v>
+      </c>
+      <c r="V9" t="s">
+        <v>29</v>
+      </c>
+      <c r="W9">
+        <v>5</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0.8798283261802575</v>
+      </c>
+      <c r="Z9">
+        <v>0.4130201213439741</v>
+      </c>
+      <c r="AA9">
+        <v>0.4221551433365198</v>
+      </c>
+      <c r="AB9">
+        <v>2</v>
+      </c>
+      <c r="AC9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29">
+      <c r="A10">
+        <v>0.65</v>
+      </c>
+      <c r="B10">
+        <v>0.673469387755102</v>
+      </c>
+      <c r="C10">
+        <v>0.868421052631579</v>
+      </c>
+      <c r="D10">
+        <v>0.7586206896551724</v>
+      </c>
+      <c r="E10">
+        <v>38</v>
+      </c>
+      <c r="F10">
+        <v>0.6274509803921569</v>
+      </c>
+      <c r="G10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="H10">
+        <v>0.6464646464646465</v>
+      </c>
+      <c r="I10">
+        <v>48</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>14</v>
+      </c>
+      <c r="N10">
+        <v>0.433640122715753</v>
+      </c>
+      <c r="O10">
+        <v>0.5116959064327485</v>
+      </c>
+      <c r="P10">
+        <v>0.4683617787066063</v>
+      </c>
+      <c r="Q10">
+        <v>100</v>
+      </c>
+      <c r="R10">
+        <v>0.5570948379351741</v>
+      </c>
+      <c r="S10">
+        <v>0.65</v>
+      </c>
+      <c r="T10">
+        <v>0.5985788923719959</v>
+      </c>
+      <c r="U10">
+        <v>100</v>
+      </c>
+      <c r="V10" t="s">
+        <v>29</v>
+      </c>
+      <c r="W10">
+        <v>5</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0.6351931330472103</v>
+      </c>
+      <c r="Z10">
+        <v>0.7824750689420029</v>
+      </c>
+      <c r="AA10">
+        <v>0.8435905441121424</v>
+      </c>
+      <c r="AB10">
+        <v>4</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29">
+      <c r="A11">
+        <v>0.73</v>
+      </c>
+      <c r="B11">
+        <v>0.8787878787878788</v>
+      </c>
+      <c r="C11">
+        <v>0.7631578947368421</v>
+      </c>
+      <c r="D11">
+        <v>0.8169014084507042</v>
+      </c>
+      <c r="E11">
+        <v>38</v>
+      </c>
+      <c r="F11">
+        <v>0.6567164179104478</v>
+      </c>
+      <c r="G11">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="H11">
+        <v>0.7652173913043478</v>
+      </c>
+      <c r="I11">
+        <v>48</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>14</v>
+      </c>
+      <c r="N11">
+        <v>0.5118347655661089</v>
+      </c>
+      <c r="O11">
+        <v>0.5599415204678363</v>
+      </c>
+      <c r="P11">
+        <v>0.527372933251684</v>
+      </c>
+      <c r="Q11">
+        <v>100</v>
+      </c>
+      <c r="R11">
+        <v>0.6491632745364089</v>
+      </c>
+      <c r="S11">
+        <v>0.73</v>
+      </c>
+      <c r="T11">
+        <v>0.6777268830373546</v>
+      </c>
+      <c r="U11">
+        <v>100</v>
+      </c>
+      <c r="V11" t="s">
+        <v>29</v>
+      </c>
+      <c r="W11">
+        <v>5</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0.721030042918455</v>
+      </c>
+      <c r="Z11">
+        <v>0.5987550011889752</v>
+      </c>
+      <c r="AA11">
+        <v>0.6130956842035009</v>
+      </c>
+      <c r="AB11">
+        <v>4</v>
+      </c>
+      <c r="AC11">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
